--- a/function_testing/Systemanforderungen_V3_testing.xlsx
+++ b/function_testing/Systemanforderungen_V3_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sljub\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87C6326-AEBE-4361-9210-1A5949A43981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D87BD-F13E-4071-84DC-1891FC1FBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
   <si>
     <t>Cell-Balancing</t>
   </si>
@@ -2236,6 +2236,9 @@
   </si>
   <si>
     <t>lower display</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2605,15 +2608,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2637,14 +2631,23 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5208,32 +5211,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.0625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8125" style="1"/>
+    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
@@ -5245,7 +5248,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:11" ht="16.2" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
@@ -5262,17 +5265,17 @@
       <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="8" t="s">
@@ -5287,10 +5290,10 @@
       <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -5322,13 +5325,15 @@
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
@@ -5343,13 +5348,13 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="6" t="s">
@@ -5364,13 +5369,13 @@
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A10" s="6" t="s">
@@ -5385,13 +5390,13 @@
       <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -5406,13 +5411,13 @@
       <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
@@ -5427,13 +5432,13 @@
       <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
@@ -5448,13 +5453,13 @@
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -5469,13 +5474,13 @@
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">
@@ -5490,13 +5495,13 @@
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="6" t="s">
@@ -5511,13 +5516,13 @@
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
@@ -5532,13 +5537,13 @@
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
@@ -5553,13 +5558,13 @@
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
@@ -5574,13 +5579,13 @@
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
@@ -5595,15 +5600,15 @@
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
@@ -5616,13 +5621,13 @@
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
@@ -5637,15 +5642,15 @@
       <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
@@ -5658,15 +5663,15 @@
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>87</v>
       </c>
@@ -5679,13 +5684,13 @@
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
@@ -5700,13 +5705,13 @@
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
@@ -5715,7 +5720,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:11" ht="16.2" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5752,13 +5757,13 @@
       <c r="D29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
@@ -5773,13 +5778,13 @@
       <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" ht="69" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
@@ -5794,15 +5799,15 @@
       <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="86" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="85.95" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -5815,13 +5820,13 @@
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
@@ -5836,13 +5841,13 @@
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -5857,13 +5862,13 @@
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13"/>
@@ -5872,7 +5877,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="36" spans="1:11" ht="16.2" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -5909,15 +5914,15 @@
       <c r="D38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -5930,15 +5935,15 @@
       <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
@@ -5951,15 +5956,15 @@
       <c r="D40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -5972,15 +5977,15 @@
       <c r="D41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
@@ -5993,15 +5998,15 @@
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -6014,13 +6019,13 @@
       <c r="D43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13"/>
@@ -6029,7 +6034,7 @@
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="45" spans="1:11" ht="16.2" thickBot="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -6066,15 +6071,15 @@
       <c r="D47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" ht="79.150000000000006" thickBot="1">
+    <row r="48" spans="1:11" ht="94.2" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -6087,13 +6092,13 @@
       <c r="D48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
     </row>
     <row r="49" spans="1:11" ht="91.05" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
@@ -6108,13 +6113,13 @@
       <c r="D49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="s">
@@ -6129,13 +6134,13 @@
       <c r="D50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
@@ -6150,15 +6155,15 @@
       <c r="D51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11" ht="47.65" thickBot="1">
+    <row r="52" spans="1:11" ht="47.4" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6171,15 +6176,15 @@
       <c r="D52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11" ht="47.65" thickBot="1">
+    <row r="53" spans="1:11" ht="47.4" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>105</v>
       </c>
@@ -6192,15 +6197,15 @@
       <c r="D53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11" ht="31.9" thickBot="1">
+    <row r="54" spans="1:11" ht="31.8" thickBot="1">
       <c r="A54" s="23" t="s">
         <v>107</v>
       </c>
@@ -6213,15 +6218,15 @@
       <c r="D54" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:11" ht="31.9" thickBot="1">
+    <row r="55" spans="1:11" ht="31.8" thickBot="1">
       <c r="A55" s="23" t="s">
         <v>108</v>
       </c>
@@ -6234,15 +6239,15 @@
       <c r="D55" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:11" ht="31.9" thickBot="1">
+    <row r="56" spans="1:11" ht="31.8" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>109</v>
       </c>
@@ -6255,15 +6260,15 @@
       <c r="D56" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
     </row>
-    <row r="58" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="58" spans="1:11" ht="16.2" thickBot="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>

--- a/function_testing/Systemanforderungen_V3_testing.xlsx
+++ b/function_testing/Systemanforderungen_V3_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sljub\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D87BD-F13E-4071-84DC-1891FC1FBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B396730-6C46-49F1-8E88-61F420252B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>Cell-Balancing</t>
   </si>
@@ -2677,9 +2677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>670878</xdr:colOff>
+      <xdr:colOff>677228</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>643026</xdr:rowOff>
+      <xdr:rowOff>636676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5211,27 +5211,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="16.2" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
@@ -5377,7 +5377,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -5479,7 +5479,9 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
@@ -5500,7 +5502,9 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1">
@@ -5524,7 +5528,7 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -5566,7 +5570,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -5587,7 +5591,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -5608,7 +5612,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
@@ -5650,7 +5654,7 @@
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
@@ -5671,7 +5675,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>87</v>
       </c>
@@ -5720,7 +5724,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="16.2" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5744,7 +5748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -5807,7 +5811,7 @@
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="85.95" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="86" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -5849,7 +5853,7 @@
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
@@ -5877,7 +5881,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="16.2" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -5922,7 +5926,7 @@
       <c r="J38" s="32"/>
       <c r="K38" s="32"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -5943,7 +5947,7 @@
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
@@ -5964,7 +5968,7 @@
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -5985,7 +5989,7 @@
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
@@ -6006,7 +6010,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -6034,7 +6038,7 @@
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:11" ht="16.2" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickBot="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -6058,7 +6062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="47" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
@@ -6079,7 +6083,7 @@
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" ht="94.2" thickBot="1">
+    <row r="48" spans="1:11" ht="80.5" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -6100,7 +6104,7 @@
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" spans="1:11" ht="91.05" customHeight="1" thickBot="1">
+    <row r="49" spans="1:11" ht="91" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>85</v>
       </c>
@@ -6163,7 +6167,7 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11" ht="47.4" thickBot="1">
+    <row r="52" spans="1:11" ht="48.5" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6184,7 +6188,7 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11" ht="47.4" thickBot="1">
+    <row r="53" spans="1:11" ht="48.5" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>105</v>
       </c>
@@ -6205,7 +6209,7 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11" ht="31.8" thickBot="1">
+    <row r="54" spans="1:11" ht="32.5" thickBot="1">
       <c r="A54" s="23" t="s">
         <v>107</v>
       </c>
@@ -6226,7 +6230,7 @@
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:11" ht="31.8" thickBot="1">
+    <row r="55" spans="1:11" ht="32.5" thickBot="1">
       <c r="A55" s="23" t="s">
         <v>108</v>
       </c>
@@ -6247,7 +6251,7 @@
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:11" ht="31.8" thickBot="1">
+    <row r="56" spans="1:11" ht="32.5" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>109</v>
       </c>
@@ -6268,7 +6272,7 @@
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="58" spans="1:11" ht="16.2" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickBot="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>

--- a/function_testing/Systemanforderungen_V3_testing.xlsx
+++ b/function_testing/Systemanforderungen_V3_testing.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sljub\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D87BD-F13E-4071-84DC-1891FC1FBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86D4E0-C5B3-4899-8CA8-6E54838151BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="function testing_cellvoltage" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$F$6:$K$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
   <si>
     <t>Cell-Balancing</t>
   </si>
@@ -2238,14 +2242,17 @@
     <t>lower display</t>
   </si>
   <si>
-    <t>X</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2359,8 +2366,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2388,6 +2402,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2541,7 +2579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2623,14 +2661,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2649,6 +2682,55 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4892,6 +4974,443 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4826000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8525BE7E-1666-473E-9078-BD1DA5038A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6564313" y="16959792"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerader Verbinder 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0B6329-D900-2173-10C7-7D3AFDB82E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15198328" y="2006203"/>
+          <a:ext cx="672703" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>321467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Verbinder: gewinkelt 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A4FB29-D514-8F26-2E07-579A224E4E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14492883" y="2592585"/>
+          <a:ext cx="1940719" cy="791766"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29764</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>392907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Geschweifte Klammer rechts 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18EDD67-09C5-2985-09D8-F342C22A3DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15037593" y="1613297"/>
+          <a:ext cx="220266" cy="797720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54288"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>396477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>253602</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>384572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Geschweifte Klammer rechts 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC05FDB2-EFD0-4970-BF73-2C1D130A3386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15041165" y="2414587"/>
+          <a:ext cx="220266" cy="797720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54288"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39291</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Verbinder: gewinkelt 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53A4D9A-2C66-4993-86F6-728163D92DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14391682" y="3459363"/>
+          <a:ext cx="1783553" cy="472678"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100067"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265509</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Gerader Verbinder 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E47C2C-4C96-4BA6-B33F-27EBF60D5060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15273338" y="2807493"/>
+          <a:ext cx="246459" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -5211,32 +5730,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.6875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="1"/>
+    <col min="9" max="9" width="13.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
@@ -5248,7 +5768,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="16.2" thickBot="1">
+    <row r="4" spans="1:11" ht="16.149999999999999" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
@@ -5268,14 +5788,14 @@
       <c r="E5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="8" t="s">
@@ -5293,7 +5813,7 @@
       <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -5326,14 +5846,14 @@
         <v>29</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
@@ -5349,12 +5869,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="6" t="s">
@@ -5370,12 +5892,14 @@
         <v>29</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A10" s="6" t="s">
@@ -5391,12 +5915,14 @@
         <v>29</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -5412,12 +5938,14 @@
         <v>29</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
@@ -5433,12 +5961,14 @@
         <v>29</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
@@ -5454,12 +5984,14 @@
         <v>29</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -5475,12 +6007,12 @@
         <v>29</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">
@@ -5496,12 +6028,12 @@
         <v>29</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="6" t="s">
@@ -5517,12 +6049,12 @@
         <v>29</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
@@ -5538,12 +6070,12 @@
         <v>29</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
@@ -5559,12 +6091,12 @@
         <v>29</v>
       </c>
       <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
@@ -5580,12 +6112,14 @@
         <v>29</v>
       </c>
       <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
@@ -5601,14 +6135,14 @@
         <v>15</v>
       </c>
       <c r="E20" s="27"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
@@ -5622,12 +6156,14 @@
         <v>29</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
@@ -5643,14 +6179,16 @@
         <v>29</v>
       </c>
       <c r="E22" s="27"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+      <c r="F22" s="36"/>
+      <c r="G22" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
@@ -5664,14 +6202,14 @@
         <v>29</v>
       </c>
       <c r="E23" s="27"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.95" customHeight="1" thickBot="1">
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>87</v>
       </c>
@@ -5685,12 +6223,12 @@
         <v>29</v>
       </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
@@ -5706,12 +6244,14 @@
         <v>15</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
@@ -5719,13 +6259,49 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.2" thickBot="1">
+      <c r="F26" s="41">
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0</v>
+      </c>
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="41">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.149999999999999" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
+      <c r="F27" s="41">
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="41">
+        <v>0</v>
+      </c>
+      <c r="J27" s="41">
+        <v>0</v>
+      </c>
+      <c r="K27" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="8" t="s">
@@ -5743,6 +6319,24 @@
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="F28" s="41">
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="41">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0</v>
+      </c>
+      <c r="K28" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="s">
@@ -5758,12 +6352,12 @@
         <v>29</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
@@ -5779,12 +6373,12 @@
         <v>29</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" ht="69" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
@@ -5800,14 +6394,14 @@
         <v>29</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" ht="85.95" customHeight="1" thickBot="1">
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="86" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -5821,12 +6415,12 @@
         <v>29</v>
       </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
@@ -5842,12 +6436,12 @@
         <v>29</v>
       </c>
       <c r="E33" s="26"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -5863,12 +6457,12 @@
         <v>29</v>
       </c>
       <c r="E34" s="26"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13"/>
@@ -5876,13 +6470,49 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.2" thickBot="1">
+      <c r="F35" s="41">
+        <v>0</v>
+      </c>
+      <c r="G35" s="41">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.149999999999999" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
+      <c r="F36" s="41">
+        <v>0</v>
+      </c>
+      <c r="G36" s="41">
+        <v>0</v>
+      </c>
+      <c r="H36" s="41">
+        <v>0</v>
+      </c>
+      <c r="I36" s="41">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="8" t="s">
@@ -5900,6 +6530,24 @@
       <c r="E37" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="F37" s="41">
+        <v>0</v>
+      </c>
+      <c r="G37" s="41">
+        <v>0</v>
+      </c>
+      <c r="H37" s="41">
+        <v>0</v>
+      </c>
+      <c r="I37" s="41">
+        <v>0</v>
+      </c>
+      <c r="J37" s="41">
+        <v>0</v>
+      </c>
+      <c r="K37" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="s">
@@ -5915,14 +6563,14 @@
         <v>32</v>
       </c>
       <c r="E38" s="26"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-    </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -5936,14 +6584,16 @@
         <v>32</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+      <c r="F39" s="38"/>
+      <c r="G39" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
@@ -5957,14 +6607,16 @@
         <v>32</v>
       </c>
       <c r="E40" s="26"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+      <c r="F40" s="38"/>
+      <c r="G40" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -5978,14 +6630,16 @@
         <v>32</v>
       </c>
       <c r="E41" s="26"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+      <c r="F41" s="38"/>
+      <c r="G41" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
@@ -5999,14 +6653,14 @@
         <v>32</v>
       </c>
       <c r="E42" s="26"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.4" thickBot="1">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -6020,12 +6674,12 @@
         <v>32</v>
       </c>
       <c r="E43" s="26"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13"/>
@@ -6033,13 +6687,49 @@
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.2" thickBot="1">
+      <c r="F44" s="41">
+        <v>0</v>
+      </c>
+      <c r="G44" s="41">
+        <v>0</v>
+      </c>
+      <c r="H44" s="41">
+        <v>0</v>
+      </c>
+      <c r="I44" s="41">
+        <v>0</v>
+      </c>
+      <c r="J44" s="41">
+        <v>0</v>
+      </c>
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.149999999999999" thickBot="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
+      <c r="F45" s="41">
+        <v>0</v>
+      </c>
+      <c r="G45" s="41">
+        <v>0</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="41">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41">
+        <v>0</v>
+      </c>
+      <c r="K45" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A46" s="8" t="s">
@@ -6057,6 +6747,24 @@
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="F46" s="41">
+        <v>0</v>
+      </c>
+      <c r="G46" s="41">
+        <v>0</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="41">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41">
+        <v>0</v>
+      </c>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -6072,14 +6780,14 @@
         <v>32</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-    </row>
-    <row r="48" spans="1:11" ht="94.2" thickBot="1">
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+    </row>
+    <row r="48" spans="1:11" ht="79.150000000000006" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -6093,12 +6801,12 @@
         <v>32</v>
       </c>
       <c r="E48" s="26"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" ht="91.05" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
@@ -6114,12 +6822,12 @@
         <v>32</v>
       </c>
       <c r="E49" s="26"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="s">
@@ -6135,12 +6843,12 @@
         <v>32</v>
       </c>
       <c r="E50" s="26"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
@@ -6156,14 +6864,14 @@
         <v>32</v>
       </c>
       <c r="E51" s="26"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-    </row>
-    <row r="52" spans="1:11" ht="47.4" thickBot="1">
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+    </row>
+    <row r="52" spans="1:11" ht="47.65" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6177,14 +6885,14 @@
         <v>32</v>
       </c>
       <c r="E52" s="26"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:11" ht="47.4" thickBot="1">
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" spans="1:11" ht="47.65" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>105</v>
       </c>
@@ -6197,15 +6905,15 @@
       <c r="D53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-    </row>
-    <row r="54" spans="1:11" ht="31.8" thickBot="1">
+      <c r="E53" s="29"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+    </row>
+    <row r="54" spans="1:11" ht="31.9" thickBot="1">
       <c r="A54" s="23" t="s">
         <v>107</v>
       </c>
@@ -6219,14 +6927,14 @@
         <v>32</v>
       </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-    </row>
-    <row r="55" spans="1:11" ht="31.8" thickBot="1">
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:11" ht="31.9" thickBot="1">
       <c r="A55" s="23" t="s">
         <v>108</v>
       </c>
@@ -6240,14 +6948,14 @@
         <v>32</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-    </row>
-    <row r="56" spans="1:11" ht="31.8" thickBot="1">
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:11" ht="31.9" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>109</v>
       </c>
@@ -6261,14 +6969,14 @@
         <v>32</v>
       </c>
       <c r="E56" s="26"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.2" thickBot="1">
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.149999999999999" thickBot="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -6335,6 +7043,7 @@
       <c r="C65" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="F6:K56" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F5:K5"/>
@@ -6344,4 +7053,395 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9596941F-C43A-4A95-9275-09855E2FEA7A}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="116.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="8" width="11" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.65" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.4" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.399999999999999" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.9" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.9" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.9" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="47.65" thickBot="1">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="47.65" thickBot="1">
+      <c r="A16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.399999999999999" thickBot="1">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:6" ht="47.65" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="47.65" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="47.65" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="52" customFormat="1"/>
+    <row r="25" spans="1:6" s="52" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/function_testing/Systemanforderungen_V3_testing.xlsx
+++ b/function_testing/Systemanforderungen_V3_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86D4E0-C5B3-4899-8CA8-6E54838151BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35025F6-E659-49AF-AB9D-77BBCE798308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="123">
   <si>
     <t>Cell-Balancing</t>
   </si>
@@ -2667,21 +2667,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,6 +2716,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2759,9 +2759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>670878</xdr:colOff>
+      <xdr:colOff>674053</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>643026</xdr:rowOff>
+      <xdr:rowOff>639851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5730,33 +5730,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8125" style="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
@@ -5768,7 +5768,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
@@ -5788,14 +5788,14 @@
       <c r="E5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="8" t="s">
@@ -5846,14 +5846,14 @@
         <v>29</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
@@ -5869,14 +5869,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="6" t="s">
@@ -5892,16 +5892,16 @@
         <v>29</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -5915,14 +5915,14 @@
         <v>29</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -5938,14 +5938,14 @@
         <v>29</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
@@ -5961,16 +5961,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -5984,14 +5984,14 @@
         <v>29</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -6007,12 +6007,14 @@
         <v>29</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">
@@ -6028,12 +6030,14 @@
         <v>29</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="6" t="s">
@@ -6049,14 +6053,16 @@
         <v>29</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -6070,12 +6076,14 @@
         <v>29</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
@@ -6091,14 +6099,14 @@
         <v>29</v>
       </c>
       <c r="E18" s="27"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -6112,16 +6120,16 @@
         <v>29</v>
       </c>
       <c r="E19" s="27"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -6135,12 +6143,12 @@
         <v>15</v>
       </c>
       <c r="E20" s="27"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
@@ -6156,14 +6164,14 @@
         <v>29</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="31"/>
+      <c r="G21" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
@@ -6179,14 +6187,14 @@
         <v>29</v>
       </c>
       <c r="E22" s="27"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
@@ -6202,12 +6210,12 @@
         <v>29</v>
       </c>
       <c r="E23" s="27"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="56" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -6223,12 +6231,12 @@
         <v>29</v>
       </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
@@ -6244,14 +6252,14 @@
         <v>15</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
@@ -6259,47 +6267,47 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="41">
+      <c r="F26" s="36">
         <v>0</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="36">
         <v>0</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="36">
         <v>0</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="36">
         <v>0</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="36">
         <v>0</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="41">
+      <c r="F27" s="36">
         <v>0</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="36">
         <v>0</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="36">
         <v>0</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="36">
         <v>0</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="36">
         <v>0</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6319,26 +6327,26 @@
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="36">
         <v>0</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="36">
         <v>0</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="36">
         <v>0</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="36">
         <v>0</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="36">
         <v>0</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -6352,12 +6360,12 @@
         <v>29</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
@@ -6373,12 +6381,12 @@
         <v>29</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" ht="69" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
@@ -6394,12 +6402,12 @@
         <v>29</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" ht="86" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
@@ -6415,12 +6423,12 @@
         <v>29</v>
       </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11" ht="75" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
@@ -6436,14 +6444,14 @@
         <v>29</v>
       </c>
       <c r="E33" s="26"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
@@ -6457,12 +6465,12 @@
         <v>29</v>
       </c>
       <c r="E34" s="26"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13"/>
@@ -6470,47 +6478,47 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="41">
+      <c r="F35" s="36">
         <v>0</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="36">
         <v>0</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="36">
         <v>0</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="36">
         <v>0</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="36">
         <v>0</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="41">
+      <c r="F36" s="36">
         <v>0</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="36">
         <v>0</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="36">
         <v>0</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="36">
         <v>0</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="36">
         <v>0</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6530,22 +6538,22 @@
       <c r="E37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="36">
         <v>0</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="36">
         <v>0</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="36">
         <v>0</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="36">
         <v>0</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="36">
         <v>0</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6563,14 +6571,14 @@
         <v>32</v>
       </c>
       <c r="E38" s="26"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-    </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -6584,16 +6592,16 @@
         <v>32</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39" t="s">
+      <c r="F39" s="33"/>
+      <c r="G39" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
@@ -6607,16 +6615,16 @@
         <v>32</v>
       </c>
       <c r="E40" s="26"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39" t="s">
+      <c r="F40" s="33"/>
+      <c r="G40" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-    </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -6630,16 +6638,16 @@
         <v>32</v>
       </c>
       <c r="E41" s="26"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39" t="s">
+      <c r="F41" s="33"/>
+      <c r="G41" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
@@ -6653,14 +6661,16 @@
         <v>32</v>
       </c>
       <c r="E42" s="26"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="47.65" thickBot="1">
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -6674,12 +6684,14 @@
         <v>32</v>
       </c>
       <c r="E43" s="26"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13"/>
@@ -6687,47 +6699,47 @@
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="41">
+      <c r="F44" s="36">
         <v>0</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="36">
         <v>0</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44" s="36">
         <v>0</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="36">
         <v>0</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="36">
         <v>0</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickBot="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="41">
+      <c r="F45" s="36">
         <v>0</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="36">
         <v>0</v>
       </c>
-      <c r="H45" s="41">
+      <c r="H45" s="36">
         <v>0</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="36">
         <v>0</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="36">
         <v>0</v>
       </c>
-      <c r="K45" s="41">
+      <c r="K45" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6747,26 +6759,26 @@
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="36">
         <v>0</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="36">
         <v>0</v>
       </c>
-      <c r="H46" s="41">
+      <c r="H46" s="36">
         <v>0</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="36">
         <v>0</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="36">
         <v>0</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="47" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
@@ -6780,14 +6792,14 @@
         <v>32</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="1:11" ht="79.150000000000006" thickBot="1">
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" ht="80.5" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -6801,14 +6813,14 @@
         <v>32</v>
       </c>
       <c r="E48" s="26"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="1:11" ht="91.05" customHeight="1" thickBot="1">
+      <c r="F48" s="31"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="1:11" ht="91" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>85</v>
       </c>
@@ -6822,12 +6834,12 @@
         <v>32</v>
       </c>
       <c r="E49" s="26"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="s">
@@ -6843,12 +6855,12 @@
         <v>32</v>
       </c>
       <c r="E50" s="26"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
@@ -6864,14 +6876,14 @@
         <v>32</v>
       </c>
       <c r="E51" s="26"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-    </row>
-    <row r="52" spans="1:11" ht="47.65" thickBot="1">
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11" ht="48.5" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6885,14 +6897,14 @@
         <v>32</v>
       </c>
       <c r="E52" s="26"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" spans="1:11" ht="47.65" thickBot="1">
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" ht="48.5" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>105</v>
       </c>
@@ -6906,14 +6918,14 @@
         <v>32</v>
       </c>
       <c r="E53" s="29"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-    </row>
-    <row r="54" spans="1:11" ht="31.9" thickBot="1">
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" ht="32.5" thickBot="1">
       <c r="A54" s="23" t="s">
         <v>107</v>
       </c>
@@ -6927,14 +6939,14 @@
         <v>32</v>
       </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" spans="1:11" ht="31.9" thickBot="1">
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" ht="32.5" thickBot="1">
       <c r="A55" s="23" t="s">
         <v>108</v>
       </c>
@@ -6948,14 +6960,14 @@
         <v>32</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:11" ht="31.9" thickBot="1">
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+    </row>
+    <row r="56" spans="1:11" ht="32.5" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>109</v>
       </c>
@@ -6969,14 +6981,14 @@
         <v>32</v>
       </c>
       <c r="E56" s="26"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" thickBot="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -7064,52 +7076,52 @@
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="116.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
-    <col min="7" max="8" width="11" style="52"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="8" width="11" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.65" thickBot="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" ht="24" thickBot="1">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.4" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.5" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7125,11 +7137,11 @@
       <c r="E5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.399999999999999" thickBot="1">
+    <row r="6" spans="1:6" ht="19" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -7149,7 +7161,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -7163,11 +7175,11 @@
         <v>29</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -7181,11 +7193,11 @@
         <v>29</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -7199,11 +7211,11 @@
         <v>29</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.9" thickBot="1">
+    <row r="10" spans="1:6" ht="32.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -7217,11 +7229,11 @@
         <v>29</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -7235,11 +7247,11 @@
         <v>29</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -7253,11 +7265,11 @@
         <v>29</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.9" thickBot="1">
+    <row r="13" spans="1:6" ht="32.5" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -7271,11 +7283,11 @@
         <v>29</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.9" thickBot="1">
+    <row r="14" spans="1:6" ht="32.5" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -7289,11 +7301,11 @@
         <v>29</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.65" thickBot="1">
+    <row r="15" spans="1:6" ht="48.5" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>66</v>
       </c>
@@ -7307,11 +7319,11 @@
         <v>29</v>
       </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.65" thickBot="1">
+    <row r="16" spans="1:6" ht="48.5" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>67</v>
       </c>
@@ -7325,11 +7337,11 @@
         <v>29</v>
       </c>
       <c r="E16" s="27"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -7343,27 +7355,27 @@
         <v>15</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.399999999999999" thickBot="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="1:6" ht="19" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
@@ -7379,9 +7391,9 @@
       <c r="E20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" ht="47.65" thickBot="1">
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="1:6" ht="48.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>72</v>
       </c>
@@ -7395,11 +7407,11 @@
         <v>32</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.65" thickBot="1">
+    <row r="22" spans="1:6" ht="48.5" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -7413,11 +7425,11 @@
         <v>32</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="47.65" thickBot="1">
+    <row r="23" spans="1:6" ht="48.5" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7431,12 +7443,12 @@
         <v>32</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="52" customFormat="1"/>
-    <row r="25" spans="1:6" s="52" customFormat="1"/>
+    <row r="24" spans="1:6" s="47" customFormat="1"/>
+    <row r="25" spans="1:6" s="47" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/function_testing/Systemanforderungen_V3_testing.xlsx
+++ b/function_testing/Systemanforderungen_V3_testing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\GitHub\BMS_LAB_FZM\function_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35025F6-E659-49AF-AB9D-77BBCE798308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F558E6E-D795-4935-94C6-D3B57083A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0128581A-D115-CE43-B1E8-0AD020BDB1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="function testing_cellvoltage" sheetId="2" r:id="rId2"/>
+    <sheet name="function testing_overtemp" sheetId="3" r:id="rId2"/>
+    <sheet name="function testing_cellvoltage" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$F$6:$K$56</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="123">
   <si>
     <t>Cell-Balancing</t>
   </si>
@@ -2759,9 +2760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>674053</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>639851</xdr:rowOff>
+      <xdr:colOff>677228</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>15850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4859,8 +4860,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>569419</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>189893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4920,8 +4921,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>283624</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>438367</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>187485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4975,6 +4976,66 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4826000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Textfeld 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE2F965-20CB-424F-AA76-414F57F320F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="3524250"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5728,11 +5789,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -5832,7 +5894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -5855,7 +5917,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -5878,7 +5940,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -5901,7 +5963,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -5924,7 +5986,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -5947,7 +6009,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -5970,7 +6032,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -6085,7 +6147,7 @@
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -6106,7 +6168,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -6129,7 +6191,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -6150,7 +6212,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="56" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
@@ -6173,7 +6235,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="57" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
@@ -6196,7 +6258,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="56" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
@@ -6217,7 +6279,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" ht="56" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="56" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>87</v>
       </c>
@@ -6238,7 +6300,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -6261,7 +6323,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="16.5" hidden="1" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6286,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" hidden="1" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6311,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -6346,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -6367,7 +6429,7 @@
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="1:11" ht="75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="75" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
@@ -6388,7 +6450,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
     </row>
-    <row r="31" spans="1:11" ht="69" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="69" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -6409,7 +6471,7 @@
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="1:11" ht="86" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="86" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -6430,7 +6492,7 @@
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
     </row>
-    <row r="33" spans="1:11" ht="75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:11" ht="75" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>88</v>
       </c>
@@ -6451,7 +6513,7 @@
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
     </row>
-    <row r="34" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
@@ -6472,7 +6534,7 @@
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="16.5" hidden="1" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -6497,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" hidden="1" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -6522,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:11" s="11" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>24</v>
       </c>
@@ -6557,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:11" s="11" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -6578,7 +6640,7 @@
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="48.5" hidden="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -6601,7 +6663,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="48.5" hidden="1" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
@@ -6624,7 +6686,7 @@
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="48.5" thickBot="1">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="48.5" hidden="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -6693,7 +6755,7 @@
       </c>
       <c r="K43" s="34"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -6718,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickBot="1">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -6743,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:11" s="11" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="8" t="s">
         <v>21</v>
       </c>
@@ -6778,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="40" customHeight="1" thickBot="1">
+    <row r="47" spans="1:11" ht="40" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
@@ -6799,7 +6861,7 @@
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
     </row>
-    <row r="48" spans="1:11" ht="80.5" thickBot="1">
+    <row r="48" spans="1:11" ht="80.5" hidden="1" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -6820,7 +6882,7 @@
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
     </row>
-    <row r="49" spans="1:11" ht="91" customHeight="1" thickBot="1">
+    <row r="49" spans="1:11" ht="91" hidden="1" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>85</v>
       </c>
@@ -6841,7 +6903,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>86</v>
       </c>
@@ -6862,7 +6924,7 @@
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>91</v>
       </c>
@@ -6883,7 +6945,7 @@
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
     </row>
-    <row r="52" spans="1:11" ht="48.5" thickBot="1">
+    <row r="52" spans="1:11" ht="48.5" hidden="1" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6904,7 +6966,7 @@
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
     </row>
-    <row r="53" spans="1:11" ht="48.5" thickBot="1">
+    <row r="53" spans="1:11" ht="48.5" hidden="1" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>105</v>
       </c>
@@ -6925,7 +6987,7 @@
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
     </row>
-    <row r="54" spans="1:11" ht="32.5" thickBot="1">
+    <row r="54" spans="1:11" ht="32.5" hidden="1" thickBot="1">
       <c r="A54" s="23" t="s">
         <v>107</v>
       </c>
@@ -6946,7 +7008,7 @@
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
     </row>
-    <row r="55" spans="1:11" ht="32.5" thickBot="1">
+    <row r="55" spans="1:11" ht="32.5" hidden="1" thickBot="1">
       <c r="A55" s="23" t="s">
         <v>108</v>
       </c>
@@ -6967,7 +7029,7 @@
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
     </row>
-    <row r="56" spans="1:11" ht="32.5" thickBot="1">
+    <row r="56" spans="1:11" ht="32.5" hidden="1" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>109</v>
       </c>
@@ -7055,7 +7117,14 @@
       <c r="C65" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="F6:K56" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}"/>
+  <autoFilter ref="F6:K56" xr:uid="{E8C6FCD6-BC7B-0049-B6C8-AD4CAB9B1B59}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="(x)"/>
+        <filter val="x"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F5:K5"/>
@@ -7068,6 +7137,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0CCFA0-D973-4558-9329-A0108AE8B6BC}">
+  <dimension ref="A21:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+    <col min="3" max="3" width="64.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="16.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="1:11" ht="16.5" thickBot="1"/>
+    <row r="22" spans="1:11" ht="21.5" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="19" thickBot="1">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" ht="98" customHeight="1" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" ht="95" customHeight="1" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F22:K22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9596941F-C43A-4A95-9275-09855E2FEA7A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
